--- a/template/Gradients1-KOK1606-FluorometricChlorophyll_2020-03-03_V1.1_example.xlsx
+++ b/template/Gradients1-KOK1606-FluorometricChlorophyll_2020-03-03_V1.1_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -81,9 +81,6 @@
     <t xml:space="preserve">dataset_source</t>
   </si>
   <si>
-    <t xml:space="preserve">dataset_doi</t>
-  </si>
-  <si>
     <t xml:space="preserve">dataset_history</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">White Lab - University of Hawaii at Manoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3697296</t>
   </si>
   <si>
     <t xml:space="preserve">Final Processed Data</t>
@@ -220,7 +214,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -264,12 +258,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,19 +338,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1407,27 +1395,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="46.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="82.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="58.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="53.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="46.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="51.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="53.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="46.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="51.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="37.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1458,49 +1446,43 @@
       <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>43893</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://doi.org/10.5281/zenodo.3697296"/>
-    <hyperlink ref="J2" r:id="rId2" display="http://hahana.soest.hawaii.edu/hot/methods/chl.html"/>
+    <hyperlink ref="I2" r:id="rId1" display="http://hahana.soest.hawaii.edu/hot/methods/chl.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1519,7 +1501,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1540,34 +1522,34 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -1576,31 +1558,31 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,28 +1590,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,28 +1619,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,28 +1648,28 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,28 +1677,28 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
